--- a/data/trans_orig/MOL_RUIDO_OCIO_DIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_DIA-Estudios-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,254 +457,274 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del ocio durante el día en el interior de la vivienda (tasa de respuesta: 99,63%)</t>
+          <t>Molestia del ruido del ocio durante el día en el interior de la vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>1.755977887781925</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1.779406373080483</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.76885426470868</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 2,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 2,38</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 2,26</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.174066463976508</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1.318809973209371</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.42170219155241</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.599367900618927</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>2.381103876007049</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.258736355371237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 2,78</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 2,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 2,6</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>2.547068019148358</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>2.337582587499793</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.442756445314233</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2.300790901226858</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.117664321968559</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.276780869968951</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2.783196566384695</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2.593587435009453</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.603755747551408</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 3,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 2,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 2,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>2.711898745573009</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>2.715907479689077</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.714130670947292</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2.41370435272887</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>2.463748944185321</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>2.523747535560813</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2.997840238852139</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.977956675194832</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2.904155008328798</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 2,69</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 2,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 2,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>2.488113722944445</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>2.391207064515744</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2.437087696921374</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2.318426377271776</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>2.2250287902039</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2.309945509578602</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2.688123321063776</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>2.58056379873518</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>2.559751595702416</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -752,11 +732,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
